--- a/biology/Zoologie/Exerodonta_xera/Exerodonta_xera.xlsx
+++ b/biology/Zoologie/Exerodonta_xera/Exerodonta_xera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exerodonta xera est une espèce d'amphibiens de la famille des Hylidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Mexique. Elle se rencontre vers 1 500 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Mexique. Elle se rencontre vers 1 500 m d'altitude, :
 dans le centre de l'État de Puebla ;
 dans le nord de l'État d'Oaxaca.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique xera vient du grec xeros, sec, en référence à l'habitat de cette espèce qui vit dans des régions désertiques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique xera vient du grec xeros, sec, en référence à l'habitat de cette espèce qui vit dans des régions désertiques.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mendelson &amp; Campbell, 1994 : Two new species of the Hyla sumichrasti group (Amphibia: Anura: Hylidae) from Mexico. Proceedings of the Biological Society of Washington, vol. 107, p. 398–409 (texte intégral).</t>
         </is>
